--- a/datos/Ejemplo_Cartera.xlsx
+++ b/datos/Ejemplo_Cartera.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="17">
   <si>
-    <t xml:space="preserve">identificacion</t>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">sexo</t>
@@ -259,11 +259,11 @@
   </sheetPr>
   <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4:J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -275,28 +275,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -310,28 +310,28 @@
       <c r="C2" s="2" t="n">
         <v>29394</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>10756</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>0.0951980778336292</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>0.0417315134109231</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -345,28 +345,28 @@
       <c r="C3" s="2" t="n">
         <v>26855</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>11523</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.114821102921269</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.0801046289125225</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -380,28 +380,28 @@
       <c r="C4" s="2" t="n">
         <v>28369</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>9493</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.106695304377354</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.0604509965487523</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -415,28 +415,28 @@
       <c r="C5" s="2" t="n">
         <v>28370</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>12974</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.00398195361776743</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>0.109791802926338</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -450,28 +450,28 @@
       <c r="C6" s="2" t="n">
         <v>31100</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>6247</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.119356593859266</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>0.122918295863201</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -485,28 +485,28 @@
       <c r="C7" s="2" t="n">
         <v>22542</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>12338</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>0.114260059679509</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>0.106909947513486</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -520,28 +520,28 @@
       <c r="C8" s="2" t="n">
         <v>22543</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>18252</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>0.0441473393148044</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>0.108457639071275</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -555,28 +555,28 @@
       <c r="C9" s="2" t="n">
         <v>22544</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>9030</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>0.0578635095007485</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>0.0699703036661958</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -590,28 +590,28 @@
       <c r="C10" s="2" t="n">
         <v>30684</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>9482</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>0.03312721925613</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>0.0939796914026374</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -625,28 +625,28 @@
       <c r="C11" s="2" t="n">
         <v>23612</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>17207</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>0.0519681561127072</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>0.0247853958717315</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -660,28 +660,28 @@
       <c r="C12" s="2" t="n">
         <v>23613</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>16867</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.0241465988947311</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>0.0257390951592242</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,28 +695,28 @@
       <c r="C13" s="2" t="n">
         <v>29829</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>12454</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>0.103889253878151</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>0.0994715256529162</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -730,28 +730,28 @@
       <c r="C14" s="2" t="n">
         <v>29830</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>16291</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>0.0993311771453591</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>0.0899022695521126</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="0" t="n">
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -765,28 +765,28 @@
       <c r="C15" s="2" t="n">
         <v>29831</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>18001</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0.099132235176512</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>0.0626457672769902</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -800,28 +800,28 @@
       <c r="C16" s="2" t="n">
         <v>29832</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>6749</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>0.0331371936918003</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>0.0552416669233935</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="0" t="n">
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -835,28 +835,28 @@
       <c r="C17" s="2" t="n">
         <v>29507</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="D17" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>12748</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>0.0111324472964043</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>0.00782333347888198</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="0" t="n">
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -870,28 +870,28 @@
       <c r="C18" s="2" t="n">
         <v>29508</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="D18" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>12626</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>0.0622399498679442</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>0.0581466787698446</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="0" t="n">
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -905,28 +905,28 @@
       <c r="C19" s="2" t="n">
         <v>24722</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>14066</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0.0707331157027511</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>0.0142305979534285</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="0" t="n">
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -940,28 +940,28 @@
       <c r="C20" s="2" t="n">
         <v>24723</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>18977</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>0.0674294004129479</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>0.0736958471679827</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="0" t="n">
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -975,28 +975,28 @@
       <c r="C21" s="2" t="n">
         <v>24724</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>9463</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>0.0878418205684284</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>0.0119092383683892</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1010,28 +1010,28 @@
       <c r="C22" s="2" t="n">
         <v>28896</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>10154</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>0.0543614257621812</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>0.0165193978027673</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="0" t="n">
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1045,28 +1045,28 @@
       <c r="C23" s="2" t="n">
         <v>28897</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>13244</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>0.0118202555604512</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>0.0959307874873048</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="0" t="n">
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1080,28 +1080,28 @@
       <c r="C24" s="2" t="n">
         <v>28898</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="D24" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>12746</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>0.0290163526224205</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>0.123414403133211</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="0" t="n">
+      <c r="H24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1115,28 +1115,28 @@
       <c r="C25" s="2" t="n">
         <v>28734</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>15087</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>0.0505772921460448</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <v>0.0190258184593404</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="0" t="n">
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1150,28 +1150,28 @@
       <c r="C26" s="2" t="n">
         <v>22745</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>13408</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>0.0637039014109178</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <v>0.0847320330649382</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="0" t="n">
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1185,28 +1185,28 @@
       <c r="C27" s="2" t="n">
         <v>27226</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>6427</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>0.100670943749719</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <v>0.0823141310975188</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="0" t="n">
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,28 +1220,28 @@
       <c r="C28" s="2" t="n">
         <v>27227</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>19528</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>0.0823860778618837</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <v>0.0932741258438909</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="0" t="n">
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1255,28 +1255,28 @@
       <c r="C29" s="2" t="n">
         <v>27228</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="D29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <v>15310</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>0.0538612921227468</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
         <v>0.0530836864927551</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="0" t="n">
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,28 +1290,28 @@
       <c r="C30" s="2" t="n">
         <v>27769</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="D30" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>6770</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>0.0512206454150146</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="1" t="n">
         <v>0.0391696739097824</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="0" t="n">
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1325,28 +1325,28 @@
       <c r="C31" s="2" t="n">
         <v>29221</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>18024</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>0.0681475752644474</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <v>0.0726574553846149</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="0" t="n">
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,28 +1360,28 @@
       <c r="C32" s="2" t="n">
         <v>29222</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>14236</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <v>0.0643350064492552</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="1" t="n">
         <v>0.124309047081624</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="0" t="n">
+      <c r="H32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1395,28 +1395,28 @@
       <c r="C33" s="2" t="n">
         <v>29223</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>17290</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <v>0.100122224233928</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="1" t="n">
         <v>0.04446667987213</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="0" t="n">
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1430,28 +1430,28 @@
       <c r="C34" s="2" t="n">
         <v>27104</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>19405</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <v>0.0501781725761248</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="1" t="n">
         <v>0.0937135475251125</v>
       </c>
-      <c r="H34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="0" t="n">
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1465,28 +1465,28 @@
       <c r="C35" s="2" t="n">
         <v>27838</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>15804</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>0.100668354672962</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="1" t="n">
         <v>0.0847428722045152</v>
       </c>
-      <c r="H35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="0" t="n">
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1500,28 +1500,28 @@
       <c r="C36" s="2" t="n">
         <v>30232</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E36" s="0" t="n">
+      <c r="D36" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>18435</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <v>0.0249476489407243</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="1" t="n">
         <v>0.0930660113081103</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="0" t="n">
+      <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1535,28 +1535,28 @@
       <c r="C37" s="2" t="n">
         <v>30233</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>18639</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <v>0.096224973545759</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="1" t="n">
         <v>0.0312741577072302</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="0" t="n">
+      <c r="H37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1570,28 +1570,28 @@
       <c r="C38" s="2" t="n">
         <v>30075</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>16518</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <v>0.117160603418597</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="1" t="n">
         <v>0.11805787308549</v>
       </c>
-      <c r="H38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="0" t="n">
+      <c r="H38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1605,28 +1605,28 @@
       <c r="C39" s="2" t="n">
         <v>30076</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>18091</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <v>0.0103123749577208</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="1" t="n">
         <v>0.00345748370455112</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="0" t="n">
+      <c r="H39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1640,28 +1640,28 @@
       <c r="C40" s="2" t="n">
         <v>30077</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>16885</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>0.0149486339214491</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="1" t="n">
         <v>0.0320732992113335</v>
       </c>
-      <c r="H40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="0" t="n">
+      <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1675,28 +1675,28 @@
       <c r="C41" s="2" t="n">
         <v>30078</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E41" s="0" t="n">
+      <c r="D41" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>14777</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>0.0220563894981751</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="1" t="n">
         <v>0.107363378527225</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="0" t="n">
+      <c r="H41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1710,28 +1710,28 @@
       <c r="C42" s="2" t="n">
         <v>30079</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>17083</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <v>0.074266233263188</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="1" t="n">
         <v>0.0746987025340786</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="0" t="n">
+      <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1745,28 +1745,28 @@
       <c r="C43" s="2" t="n">
         <v>30080</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>9084</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <v>0.0470421580102993</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="1" t="n">
         <v>0.0401104812481208</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="0" t="n">
+      <c r="H43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1780,28 +1780,28 @@
       <c r="C44" s="2" t="n">
         <v>27018</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>8862</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <v>0.00667099469865207</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="1" t="n">
         <v>0.0285266375140054</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="0" t="n">
+      <c r="H44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1815,28 +1815,28 @@
       <c r="C45" s="2" t="n">
         <v>29456</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>14800</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>0.118322721435106</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="1" t="n">
         <v>0.0596876468189294</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="0" t="n">
+      <c r="H45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1850,28 +1850,28 @@
       <c r="C46" s="2" t="n">
         <v>24697</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>5180</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <v>0.112190188505338</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="1" t="n">
         <v>0.00337907958601136</v>
       </c>
-      <c r="H46" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="0" t="n">
+      <c r="H46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1885,28 +1885,28 @@
       <c r="C47" s="2" t="n">
         <v>27848</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>5649</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <v>0.057686174477567</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47" s="1" t="n">
         <v>0.0330840001552133</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="0" t="n">
+      <c r="H47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1920,28 +1920,28 @@
       <c r="C48" s="2" t="n">
         <v>30120</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E48" s="0" t="n">
+      <c r="D48" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E48" s="1" t="n">
         <v>6106</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <v>0.00641817254654598</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="1" t="n">
         <v>0.0189640724420315</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="0" t="n">
+      <c r="H48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1955,28 +1955,28 @@
       <c r="C49" s="2" t="n">
         <v>30121</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>9522</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <v>0.0694476870266954</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="1" t="n">
         <v>0.00522368999372702</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="0" t="n">
+      <c r="H49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="K49" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1990,28 +1990,28 @@
       <c r="C50" s="2" t="n">
         <v>30122</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>6379</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <v>0.109207059649634</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50" s="1" t="n">
         <v>0.0533426381152822</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="0" t="n">
+      <c r="H50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2025,28 +2025,28 @@
       <c r="C51" s="2" t="n">
         <v>27288</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E51" s="0" t="n">
+      <c r="D51" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1" t="n">
         <v>13268</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="1" t="n">
         <v>0.121050051428028</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51" s="1" t="n">
         <v>0.113386728960904</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K51" s="0" t="n">
+      <c r="H51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K51" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2060,28 +2060,28 @@
       <c r="C52" s="2" t="n">
         <v>26339</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>12325</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="1" t="n">
         <v>0.123526779949316</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52" s="1" t="n">
         <v>0.0506229024758795</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="0" t="n">
+      <c r="H52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2095,28 +2095,28 @@
       <c r="C53" s="2" t="n">
         <v>31724</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>8294</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="1" t="n">
         <v>0.0762233810237376</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53" s="1" t="n">
         <v>0.0594204210356111</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="0" t="n">
+      <c r="H53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2130,28 +2130,28 @@
       <c r="C54" s="2" t="n">
         <v>30515</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>17019</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="1" t="n">
         <v>0.0729621073551243</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54" s="1" t="n">
         <v>0.103137855752721</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="0" t="n">
+      <c r="H54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2165,28 +2165,28 @@
       <c r="C55" s="2" t="n">
         <v>24156</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>5594</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <v>0.0373590746457921</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55" s="1" t="n">
         <v>0.117886611391441</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="0" t="n">
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="K55" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2200,28 +2200,28 @@
       <c r="C56" s="2" t="n">
         <v>29339</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>15351</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="1" t="n">
         <v>0.0386490027449327</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56" s="1" t="n">
         <v>0.0163320065912558</v>
       </c>
-      <c r="H56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="0" t="n">
+      <c r="H56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2235,28 +2235,28 @@
       <c r="C57" s="2" t="n">
         <v>32812</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E57" s="0" t="n">
+      <c r="D57" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="n">
         <v>6894</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57" s="1" t="n">
         <v>0.118980016137357</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57" s="1" t="n">
         <v>0.0278511989308754</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K57" s="0" t="n">
+      <c r="H57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2270,28 +2270,28 @@
       <c r="C58" s="2" t="n">
         <v>32813</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>12225</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="1" t="n">
         <v>0.00860160308366176</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58" s="1" t="n">
         <v>0.0222894110920606</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="0" t="n">
+      <c r="H58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="K58" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2305,28 +2305,28 @@
       <c r="C59" s="2" t="n">
         <v>32814</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E59" s="0" t="n">
+      <c r="D59" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="n">
         <v>8174</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" s="1" t="n">
         <v>0.0808912115608109</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59" s="1" t="n">
         <v>0.113527599271038</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K59" s="0" t="n">
+      <c r="H59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2340,28 +2340,28 @@
       <c r="C60" s="2" t="n">
         <v>23449</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>10533</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="1" t="n">
         <v>0.0977516154671321</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="G60" s="1" t="n">
         <v>0.0962416425027186</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="0" t="n">
+      <c r="H60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2375,28 +2375,28 @@
       <c r="C61" s="2" t="n">
         <v>23450</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E61" s="0" t="n">
+      <c r="D61" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="n">
         <v>5558</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="1" t="n">
         <v>0.118145630447543</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61" s="1" t="n">
         <v>0.115003029306536</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" s="0" t="n">
+      <c r="H61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2410,28 +2410,28 @@
       <c r="C62" s="2" t="n">
         <v>23451</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>12850</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" s="1" t="n">
         <v>0.0828992528404342</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62" s="1" t="n">
         <v>0.121570619186969</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" s="0" t="n">
+      <c r="H62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2445,28 +2445,28 @@
       <c r="C63" s="2" t="n">
         <v>23452</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>7571</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" s="1" t="n">
         <v>0.0127482180978404</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63" s="1" t="n">
         <v>0.0365481845947215</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="0" t="n">
+      <c r="H63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="K63" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2480,28 +2480,28 @@
       <c r="C64" s="2" t="n">
         <v>23453</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>18741</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="1" t="n">
         <v>0.0659404120669933</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64" s="1" t="n">
         <v>0.117788951596594</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" s="0" t="n">
+      <c r="H64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="K64" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2515,28 +2515,28 @@
       <c r="C65" s="2" t="n">
         <v>19149</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E65" s="0" t="n">
+      <c r="D65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1" t="n">
         <v>7339</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="1" t="n">
         <v>0.00160389153461438</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65" s="1" t="n">
         <v>0.0816270595387323</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" s="0" t="n">
+      <c r="H65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2550,28 +2550,28 @@
       <c r="C66" s="2" t="n">
         <v>19150</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E66" s="0" t="n">
+      <c r="D66" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E66" s="1" t="n">
         <v>12140</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="1" t="n">
         <v>0.0761492777528474</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66" s="1" t="n">
         <v>0.0751403489121003</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="0" t="n">
+      <c r="H66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2585,28 +2585,28 @@
       <c r="C67" s="2" t="n">
         <v>23527</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="1" t="n">
         <v>11115</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="1" t="n">
         <v>0.0806550652632723</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67" s="1" t="n">
         <v>0.067630137942615</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="0" t="n">
+      <c r="H67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2620,28 +2620,28 @@
       <c r="C68" s="2" t="n">
         <v>29604</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="1" t="n">
         <v>10514</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="1" t="n">
         <v>0.0509509250259725</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68" s="1" t="n">
         <v>0.101250769002945</v>
       </c>
-      <c r="H68" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="0" t="n">
+      <c r="H68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2655,28 +2655,28 @@
       <c r="C69" s="2" t="n">
         <v>27715</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="1" t="n">
         <v>6572</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="1" t="n">
         <v>0.0529930591728771</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69" s="1" t="n">
         <v>0.0283343213814078</v>
       </c>
-      <c r="H69" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="0" t="n">
+      <c r="H69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2690,28 +2690,28 @@
       <c r="C70" s="2" t="n">
         <v>27716</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="1" t="n">
         <v>7847</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="1" t="n">
         <v>0.0809072871197714</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="G70" s="1" t="n">
         <v>0.113269033070537</v>
       </c>
-      <c r="H70" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="0" t="n">
+      <c r="H70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2725,28 +2725,28 @@
       <c r="C71" s="2" t="n">
         <v>27717</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="1" t="n">
         <v>12479</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="1" t="n">
         <v>0.121077723175404</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="G71" s="1" t="n">
         <v>0.100293973795488</v>
       </c>
-      <c r="H71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="0" t="n">
+      <c r="H71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2760,28 +2760,28 @@
       <c r="C72" s="2" t="n">
         <v>26773</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="1" t="n">
         <v>13480</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="1" t="n">
         <v>0.109573409004952</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="G72" s="1" t="n">
         <v>0.100111188497976</v>
       </c>
-      <c r="H72" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K72" s="0" t="n">
+      <c r="H72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2795,28 +2795,28 @@
       <c r="C73" s="2" t="n">
         <v>26774</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="1" t="n">
         <v>11227</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="1" t="n">
         <v>0.10879127732187</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="G73" s="1" t="n">
         <v>0.0271018547791755</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" s="0" t="n">
+      <c r="H73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="K73" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,28 +2830,28 @@
       <c r="C74" s="2" t="n">
         <v>24047</v>
       </c>
-      <c r="D74" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E74" s="0" t="n">
+      <c r="D74" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="n">
         <v>19916</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" s="1" t="n">
         <v>0.0616409012145596</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74" s="1" t="n">
         <v>0.0171255382447271</v>
       </c>
-      <c r="H74" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" s="0" t="n">
+      <c r="H74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="K74" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2865,28 +2865,28 @@
       <c r="C75" s="2" t="n">
         <v>29064</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" s="1" t="n">
         <v>7618</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="1" t="n">
         <v>0.0316713337233523</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="G75" s="1" t="n">
         <v>0.0847350125695812</v>
       </c>
-      <c r="H75" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K75" s="0" t="n">
+      <c r="H75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K75" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2900,28 +2900,28 @@
       <c r="C76" s="2" t="n">
         <v>19934</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="1" t="n">
         <v>7551</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="1" t="n">
         <v>0.0765340528305387</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G76" s="1" t="n">
         <v>0.043263554762234</v>
       </c>
-      <c r="H76" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" s="0" t="n">
+      <c r="H76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K76" s="0" t="n">
+      <c r="K76" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2935,28 +2935,28 @@
       <c r="C77" s="2" t="n">
         <v>19935</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="1" t="n">
         <v>5020</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" s="1" t="n">
         <v>0.101117866186542</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="G77" s="1" t="n">
         <v>0.00196175380551722</v>
       </c>
-      <c r="H77" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K77" s="0" t="n">
+      <c r="H77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K77" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2970,28 +2970,28 @@
       <c r="C78" s="2" t="n">
         <v>19936</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="1" t="n">
         <v>11360</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" s="1" t="n">
         <v>0.018769336384139</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="G78" s="1" t="n">
         <v>0.0936080627579941</v>
       </c>
-      <c r="H78" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" s="0" t="n">
+      <c r="H78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="K78" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3005,28 +3005,28 @@
       <c r="C79" s="2" t="n">
         <v>21892</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="1" t="n">
         <v>15202</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="1" t="n">
         <v>0.0688371202413691</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79" s="1" t="n">
         <v>0.000265576076344587</v>
       </c>
-      <c r="H79" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" s="0" t="n">
+      <c r="H79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K79" s="0" t="n">
+      <c r="K79" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3040,28 +3040,28 @@
       <c r="C80" s="2" t="n">
         <v>21893</v>
       </c>
-      <c r="D80" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E80" s="0" t="n">
+      <c r="D80" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="n">
         <v>14215</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="1" t="n">
         <v>0.00400411170267034</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80" s="1" t="n">
         <v>0.0789815102034481</v>
       </c>
-      <c r="H80" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" s="0" t="n">
+      <c r="H80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K80" s="0" t="n">
+      <c r="K80" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3075,28 +3075,28 @@
       <c r="C81" s="2" t="n">
         <v>21894</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="1" t="n">
         <v>10419</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="1" t="n">
         <v>0.031208477288601</v>
       </c>
-      <c r="G81" s="0" t="n">
+      <c r="G81" s="1" t="n">
         <v>0.100682411124581</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" s="0" t="n">
+      <c r="H81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K81" s="0" t="n">
+      <c r="K81" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3110,28 +3110,28 @@
       <c r="C82" s="2" t="n">
         <v>21895</v>
       </c>
-      <c r="D82" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E82" s="0" t="n">
+      <c r="D82" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E82" s="1" t="n">
         <v>10287</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="1" t="n">
         <v>0.0966591631440679</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82" s="1" t="n">
         <v>0.102418134323671</v>
       </c>
-      <c r="H82" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K82" s="0" t="n">
+      <c r="H82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3145,28 +3145,28 @@
       <c r="C83" s="2" t="n">
         <v>20910</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="1" t="n">
         <v>5077</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="1" t="n">
         <v>0.0231348014058312</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83" s="1" t="n">
         <v>0.00388668452796992</v>
       </c>
-      <c r="H83" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="0" t="n">
+      <c r="H83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K83" s="0" t="n">
+      <c r="K83" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3180,28 +3180,28 @@
       <c r="C84" s="2" t="n">
         <v>25706</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="1" t="n">
         <v>8125</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" s="1" t="n">
         <v>0.00936280172027182</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="G84" s="1" t="n">
         <v>0.0222259775764542</v>
       </c>
-      <c r="H84" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K84" s="0" t="n">
+      <c r="H84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3215,28 +3215,28 @@
       <c r="C85" s="2" t="n">
         <v>29194</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="1" t="n">
         <v>7051</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="1" t="n">
         <v>0.0390308318164898</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85" s="1" t="n">
         <v>0.0933389590209117</v>
       </c>
-      <c r="H85" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K85" s="0" t="n">
+      <c r="H85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K85" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3250,28 +3250,28 @@
       <c r="C86" s="2" t="n">
         <v>29195</v>
       </c>
-      <c r="D86" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E86" s="0" t="n">
+      <c r="D86" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E86" s="1" t="n">
         <v>8973</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="1" t="n">
         <v>0.0256340008490952</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86" s="1" t="n">
         <v>0.0632435806182912</v>
       </c>
-      <c r="H86" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J86" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K86" s="0" t="n">
+      <c r="H86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3285,28 +3285,28 @@
       <c r="C87" s="2" t="n">
         <v>22169</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" s="1" t="n">
         <v>10691</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="G87" s="0" t="n">
+      <c r="G87" s="1" t="n">
         <v>0.033797127995058</v>
       </c>
-      <c r="H87" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K87" s="0" t="n">
+      <c r="H87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3320,28 +3320,28 @@
       <c r="C88" s="2" t="n">
         <v>22170</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" s="1" t="n">
         <v>11540</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88" s="1" t="n">
         <v>0.00171910780773032</v>
       </c>
-      <c r="G88" s="0" t="n">
+      <c r="G88" s="1" t="n">
         <v>0.114608021816821</v>
       </c>
-      <c r="H88" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88" s="0" t="n">
+      <c r="H88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K88" s="0" t="n">
+      <c r="K88" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3355,28 +3355,28 @@
       <c r="C89" s="2" t="n">
         <v>22171</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" s="1" t="n">
         <v>19574</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89" s="1" t="n">
         <v>0.00856935211049859</v>
       </c>
-      <c r="G89" s="0" t="n">
+      <c r="G89" s="1" t="n">
         <v>0.0632621533150086</v>
       </c>
-      <c r="H89" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="0" t="n">
+      <c r="H89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K89" s="0" t="n">
+      <c r="K89" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3390,28 +3390,28 @@
       <c r="C90" s="2" t="n">
         <v>22172</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="1" t="n">
         <v>11215</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90" s="1" t="n">
         <v>0.111977847569506</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90" s="1" t="n">
         <v>0.0559624353336403</v>
       </c>
-      <c r="H90" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J90" s="0" t="n">
+      <c r="H90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K90" s="0" t="n">
+      <c r="K90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3425,28 +3425,28 @@
       <c r="C91" s="2" t="n">
         <v>22173</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="1" t="n">
         <v>7289</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="1" t="n">
         <v>0.0913501047034515</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="G91" s="1" t="n">
         <v>0.098992174884188</v>
       </c>
-      <c r="H91" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K91" s="0" t="n">
+      <c r="H91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3460,28 +3460,28 @@
       <c r="C92" s="2" t="n">
         <v>27388</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" s="1" t="n">
         <v>5195</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" s="1" t="n">
         <v>0.02745334302017</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="G92" s="1" t="n">
         <v>0.108634452262777</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J92" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K92" s="0" t="n">
+      <c r="H92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K92" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3495,28 +3495,28 @@
       <c r="C93" s="2" t="n">
         <v>27389</v>
       </c>
-      <c r="D93" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E93" s="0" t="n">
+      <c r="D93" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1" t="n">
         <v>14212</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" s="1" t="n">
         <v>0.0654713943222305</v>
       </c>
-      <c r="G93" s="0" t="n">
+      <c r="G93" s="1" t="n">
         <v>0.0124962186237099</v>
       </c>
-      <c r="H93" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K93" s="0" t="n">
+      <c r="H93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3530,28 +3530,28 @@
       <c r="C94" s="2" t="n">
         <v>27390</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94" s="1" t="n">
         <v>18339</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" s="1" t="n">
         <v>0.0467068763828138</v>
       </c>
-      <c r="G94" s="0" t="n">
+      <c r="G94" s="1" t="n">
         <v>0.0897208641545149</v>
       </c>
-      <c r="H94" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K94" s="0" t="n">
+      <c r="H94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3565,28 +3565,28 @@
       <c r="C95" s="2" t="n">
         <v>31488</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" s="1" t="n">
         <v>19075</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95" s="1" t="n">
         <v>0.0548583089985186</v>
       </c>
-      <c r="G95" s="0" t="n">
+      <c r="G95" s="1" t="n">
         <v>0.0768262346246047</v>
       </c>
-      <c r="H95" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J95" s="0" t="n">
+      <c r="H95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K95" s="0" t="n">
+      <c r="K95" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3600,28 +3600,28 @@
       <c r="C96" s="2" t="n">
         <v>28070</v>
       </c>
-      <c r="D96" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E96" s="0" t="n">
+      <c r="D96" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E96" s="1" t="n">
         <v>10498</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" s="1" t="n">
         <v>0.0990047926461557</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="G96" s="1" t="n">
         <v>0.0843610498559428</v>
       </c>
-      <c r="H96" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" s="0" t="n">
+      <c r="H96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K96" s="0" t="n">
+      <c r="K96" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3635,28 +3635,28 @@
       <c r="C97" s="2" t="n">
         <v>24546</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="1" t="n">
         <v>16713</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" s="1" t="n">
         <v>0.00361148924275767</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="G97" s="1" t="n">
         <v>0.120353120277287</v>
       </c>
-      <c r="H97" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J97" s="0" t="n">
+      <c r="H97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K97" s="0" t="n">
+      <c r="K97" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,28 +3670,28 @@
       <c r="C98" s="2" t="n">
         <v>24547</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98" s="1" t="n">
         <v>9925</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98" s="1" t="n">
         <v>0.0272141935274703</v>
       </c>
-      <c r="G98" s="0" t="n">
+      <c r="G98" s="1" t="n">
         <v>0.100265559289255</v>
       </c>
-      <c r="H98" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J98" s="0" t="n">
+      <c r="H98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K98" s="0" t="n">
+      <c r="K98" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3705,28 +3705,28 @@
       <c r="C99" s="2" t="n">
         <v>24548</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99" s="1" t="n">
         <v>10574</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99" s="1" t="n">
         <v>0.0409017958008917</v>
       </c>
-      <c r="G99" s="0" t="n">
+      <c r="G99" s="1" t="n">
         <v>0.0856186482851626</v>
       </c>
-      <c r="H99" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J99" s="0" t="n">
+      <c r="H99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K99" s="0" t="n">
+      <c r="K99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,28 +3740,28 @@
       <c r="C100" s="2" t="n">
         <v>28123</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100" s="1" t="n">
         <v>17257</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100" s="1" t="n">
         <v>0.00851813140616287</v>
       </c>
-      <c r="G100" s="0" t="n">
+      <c r="G100" s="1" t="n">
         <v>0.0691157158144051</v>
       </c>
-      <c r="H100" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K100" s="0" t="n">
+      <c r="H100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3775,28 +3775,28 @@
       <c r="C101" s="2" t="n">
         <v>31280</v>
       </c>
-      <c r="D101" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E101" s="0" t="n">
+      <c r="D101" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E101" s="1" t="n">
         <v>14873</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101" s="1" t="n">
         <v>0.0705105578381335</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="G101" s="1" t="n">
         <v>0.034619207130163</v>
       </c>
-      <c r="H101" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K101" s="0" t="n">
+      <c r="H101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K101" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3810,28 +3810,28 @@
       <c r="C102" s="2" t="n">
         <v>31281</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102" s="1" t="n">
         <v>10844</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102" s="1" t="n">
         <v>0.0893540480028605</v>
       </c>
-      <c r="G102" s="0" t="n">
+      <c r="G102" s="1" t="n">
         <v>0.0521651516173733</v>
       </c>
-      <c r="H102" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="0" t="n">
+      <c r="H102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K102" s="0" t="n">
+      <c r="K102" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3845,28 +3845,28 @@
       <c r="C103" s="2" t="n">
         <v>31282</v>
       </c>
-      <c r="D103" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E103" s="0" t="n">
+      <c r="D103" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E103" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" s="1" t="n">
         <v>0.0534334025724093</v>
       </c>
-      <c r="G103" s="0" t="n">
+      <c r="G103" s="1" t="n">
         <v>0.0428687457897468</v>
       </c>
-      <c r="H103" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J103" s="0" t="n">
+      <c r="H103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K103" s="0" t="n">
+      <c r="K103" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3880,28 +3880,28 @@
       <c r="C104" s="2" t="n">
         <v>31283</v>
       </c>
-      <c r="D104" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E104" s="0" t="n">
+      <c r="D104" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E104" s="1" t="n">
         <v>12183</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104" s="1" t="n">
         <v>0.105672280522413</v>
       </c>
-      <c r="G104" s="0" t="n">
+      <c r="G104" s="1" t="n">
         <v>0.0899222578009358</v>
       </c>
-      <c r="H104" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J104" s="0" t="n">
+      <c r="H104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K104" s="0" t="n">
+      <c r="K104" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3915,28 +3915,28 @@
       <c r="C105" s="2" t="n">
         <v>28887</v>
       </c>
-      <c r="D105" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E105" s="0" t="n">
+      <c r="D105" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E105" s="1" t="n">
         <v>6540</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105" s="1" t="n">
         <v>0.0216775591979967</v>
       </c>
-      <c r="G105" s="0" t="n">
+      <c r="G105" s="1" t="n">
         <v>0.0357290577230742</v>
       </c>
-      <c r="H105" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K105" s="0" t="n">
+      <c r="H105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,28 +3950,28 @@
       <c r="C106" s="2" t="n">
         <v>26181</v>
       </c>
-      <c r="D106" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E106" s="0" t="n">
+      <c r="D106" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1" t="n">
         <v>19192</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106" s="1" t="n">
         <v>0.0199258416396333</v>
       </c>
-      <c r="G106" s="0" t="n">
+      <c r="G106" s="1" t="n">
         <v>0.116552905659773</v>
       </c>
-      <c r="H106" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J106" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K106" s="0" t="n">
+      <c r="H106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3985,28 +3985,28 @@
       <c r="C107" s="2" t="n">
         <v>24655</v>
       </c>
-      <c r="D107" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E107" s="0" t="n">
+      <c r="D107" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E107" s="1" t="n">
         <v>8008</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107" s="1" t="n">
         <v>0.0900221837946447</v>
       </c>
-      <c r="G107" s="0" t="n">
+      <c r="G107" s="1" t="n">
         <v>0.0333083899313351</v>
       </c>
-      <c r="H107" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J107" s="0" t="n">
+      <c r="H107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K107" s="0" t="n">
+      <c r="K107" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4020,28 +4020,28 @@
       <c r="C108" s="2" t="n">
         <v>23539</v>
       </c>
-      <c r="D108" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E108" s="0" t="n">
+      <c r="D108" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1" t="n">
         <v>18043</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108" s="1" t="n">
         <v>0.0799687706894474</v>
       </c>
-      <c r="G108" s="0" t="n">
+      <c r="G108" s="1" t="n">
         <v>0.0284978537965799</v>
       </c>
-      <c r="H108" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I108" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J108" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K108" s="0" t="n">
+      <c r="H108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4055,28 +4055,28 @@
       <c r="C109" s="2" t="n">
         <v>30739</v>
       </c>
-      <c r="D109" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E109" s="0" t="n">
+      <c r="D109" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E109" s="1" t="n">
         <v>6097</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109" s="1" t="n">
         <v>0.105103302877978</v>
       </c>
-      <c r="G109" s="0" t="n">
+      <c r="G109" s="1" t="n">
         <v>0.120346839234116</v>
       </c>
-      <c r="H109" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J109" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K109" s="0" t="n">
+      <c r="H109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4090,28 +4090,28 @@
       <c r="C110" s="2" t="n">
         <v>32202</v>
       </c>
-      <c r="D110" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E110" s="0" t="n">
+      <c r="D110" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E110" s="1" t="n">
         <v>6616</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110" s="1" t="n">
         <v>0.103784028251539</v>
       </c>
-      <c r="G110" s="0" t="n">
+      <c r="G110" s="1" t="n">
         <v>0.022394345185603</v>
       </c>
-      <c r="H110" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J110" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K110" s="0" t="n">
+      <c r="H110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4125,28 +4125,28 @@
       <c r="C111" s="2" t="n">
         <v>32203</v>
       </c>
-      <c r="D111" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E111" s="0" t="n">
+      <c r="D111" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E111" s="1" t="n">
         <v>16211</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111" s="1" t="n">
         <v>0.112105057443841</v>
       </c>
-      <c r="G111" s="0" t="n">
+      <c r="G111" s="1" t="n">
         <v>0.0177295990433777</v>
       </c>
-      <c r="H111" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J111" s="0" t="n">
+      <c r="H111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K111" s="0" t="n">
+      <c r="K111" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4160,28 +4160,28 @@
       <c r="C112" s="2" t="n">
         <v>29727</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112" s="1" t="n">
         <v>11529</v>
       </c>
-      <c r="F112" s="0" t="n">
+      <c r="F112" s="1" t="n">
         <v>0.113954023647239</v>
       </c>
-      <c r="G112" s="0" t="n">
+      <c r="G112" s="1" t="n">
         <v>0.113246899694786</v>
       </c>
-      <c r="H112" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J112" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K112" s="0" t="n">
+      <c r="H112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4195,28 +4195,28 @@
       <c r="C113" s="2" t="n">
         <v>23909</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113" s="1" t="n">
         <v>15900</v>
       </c>
-      <c r="F113" s="0" t="n">
+      <c r="F113" s="1" t="n">
         <v>0.071209839938092</v>
       </c>
-      <c r="G113" s="0" t="n">
+      <c r="G113" s="1" t="n">
         <v>0.061719567005639</v>
       </c>
-      <c r="H113" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J113" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" s="0" t="n">
+      <c r="H113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4230,28 +4230,28 @@
       <c r="C114" s="2" t="n">
         <v>28346</v>
       </c>
-      <c r="D114" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E114" s="0" t="n">
+      <c r="D114" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E114" s="1" t="n">
         <v>18497</v>
       </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114" s="1" t="n">
         <v>0.00716466778249014</v>
       </c>
-      <c r="G114" s="0" t="n">
+      <c r="G114" s="1" t="n">
         <v>0.0920788437215379</v>
       </c>
-      <c r="H114" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J114" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K114" s="0" t="n">
+      <c r="H114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K114" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4265,28 +4265,28 @@
       <c r="C115" s="2" t="n">
         <v>28347</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115" s="1" t="n">
         <v>8143</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115" s="1" t="n">
         <v>0.0362784279714106</v>
       </c>
-      <c r="G115" s="0" t="n">
+      <c r="G115" s="1" t="n">
         <v>0.112491925960057</v>
       </c>
-      <c r="H115" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J115" s="0" t="n">
+      <c r="H115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K115" s="0" t="n">
+      <c r="K115" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4300,28 +4300,28 @@
       <c r="C116" s="2" t="n">
         <v>28348</v>
       </c>
-      <c r="D116" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E116" s="0" t="n">
+      <c r="D116" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E116" s="1" t="n">
         <v>9722</v>
       </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116" s="1" t="n">
         <v>0.0629950669099344</v>
       </c>
-      <c r="G116" s="0" t="n">
+      <c r="G116" s="1" t="n">
         <v>0.0663645585154882</v>
       </c>
-      <c r="H116" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J116" s="0" t="n">
+      <c r="H116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K116" s="0" t="n">
+      <c r="K116" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4335,28 +4335,28 @@
       <c r="C117" s="2" t="n">
         <v>28300</v>
       </c>
-      <c r="D117" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E117" s="0" t="n">
+      <c r="D117" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E117" s="1" t="n">
         <v>8634</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117" s="1" t="n">
         <v>0.0185292880196357</v>
       </c>
-      <c r="G117" s="0" t="n">
+      <c r="G117" s="1" t="n">
         <v>0.0955761993100168</v>
       </c>
-      <c r="H117" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J117" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K117" s="0" t="n">
+      <c r="H117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K117" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,28 +4370,28 @@
       <c r="C118" s="2" t="n">
         <v>28301</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118" s="1" t="n">
         <v>18603</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118" s="1" t="n">
         <v>0.123020031038322</v>
       </c>
-      <c r="G118" s="0" t="n">
+      <c r="G118" s="1" t="n">
         <v>0.0570214219187619</v>
       </c>
-      <c r="H118" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J118" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K118" s="0" t="n">
+      <c r="H118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K118" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4405,28 +4405,28 @@
       <c r="C119" s="2" t="n">
         <v>16710</v>
       </c>
-      <c r="D119" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E119" s="0" t="n">
+      <c r="D119" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E119" s="1" t="n">
         <v>9767</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119" s="1" t="n">
         <v>0.0828071381401969</v>
       </c>
-      <c r="G119" s="0" t="n">
+      <c r="G119" s="1" t="n">
         <v>0.074058026439161</v>
       </c>
-      <c r="H119" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J119" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K119" s="0" t="n">
+      <c r="H119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K119" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4440,28 +4440,28 @@
       <c r="C120" s="2" t="n">
         <v>16711</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120" s="1" t="n">
         <v>11819</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120" s="1" t="n">
         <v>0.0605685670598177</v>
       </c>
-      <c r="G120" s="0" t="n">
+      <c r="G120" s="1" t="n">
         <v>0.0160149179428117</v>
       </c>
-      <c r="H120" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J120" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K120" s="0" t="n">
+      <c r="H120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K120" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4475,28 +4475,28 @@
       <c r="C121" s="2" t="n">
         <v>16712</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121" s="1" t="n">
         <v>11390</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121" s="1" t="n">
         <v>0.0109939789836062</v>
       </c>
-      <c r="G121" s="0" t="n">
+      <c r="G121" s="1" t="n">
         <v>0.0620304617186775</v>
       </c>
-      <c r="H121" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J121" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K121" s="0" t="n">
+      <c r="H121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K121" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4510,28 +4510,28 @@
       <c r="C122" s="2" t="n">
         <v>16713</v>
       </c>
-      <c r="D122" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E122" s="0" t="n">
+      <c r="D122" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E122" s="1" t="n">
         <v>5287</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122" s="1" t="n">
         <v>0.122489565823344</v>
       </c>
-      <c r="G122" s="0" t="n">
+      <c r="G122" s="1" t="n">
         <v>0.0717928252561251</v>
       </c>
-      <c r="H122" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J122" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K122" s="0" t="n">
+      <c r="H122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K122" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4545,28 +4545,28 @@
       <c r="C123" s="2" t="n">
         <v>16714</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E123" s="0" t="n">
+      <c r="E123" s="1" t="n">
         <v>9968</v>
       </c>
-      <c r="F123" s="0" t="n">
+      <c r="F123" s="1" t="n">
         <v>0.0112748760293471</v>
       </c>
-      <c r="G123" s="0" t="n">
+      <c r="G123" s="1" t="n">
         <v>0.0798317208100343</v>
       </c>
-      <c r="H123" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J123" s="0" t="n">
+      <c r="H123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K123" s="0" t="n">
+      <c r="K123" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,28 +4580,28 @@
       <c r="C124" s="2" t="n">
         <v>16715</v>
       </c>
-      <c r="D124" s="0" t="n">
+      <c r="D124" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E124" s="0" t="n">
+      <c r="E124" s="1" t="n">
         <v>6156</v>
       </c>
-      <c r="F124" s="0" t="n">
+      <c r="F124" s="1" t="n">
         <v>0.0671003426105017</v>
       </c>
-      <c r="G124" s="0" t="n">
+      <c r="G124" s="1" t="n">
         <v>0.109218330777367</v>
       </c>
-      <c r="H124" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J124" s="0" t="n">
+      <c r="H124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K124" s="0" t="n">
+      <c r="K124" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4615,28 +4615,28 @@
       <c r="C125" s="2" t="n">
         <v>29527</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E125" s="0" t="n">
+      <c r="E125" s="1" t="n">
         <v>13252</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125" s="1" t="n">
         <v>0.0505088727950351</v>
       </c>
-      <c r="G125" s="0" t="n">
+      <c r="G125" s="1" t="n">
         <v>0.0727176381769823</v>
       </c>
-      <c r="H125" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J125" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K125" s="0" t="n">
+      <c r="H125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K125" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4650,28 +4650,28 @@
       <c r="C126" s="2" t="n">
         <v>22927</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126" s="1" t="n">
         <v>15156</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="F126" s="1" t="n">
         <v>0.0414291417837376</v>
       </c>
-      <c r="G126" s="0" t="n">
+      <c r="G126" s="1" t="n">
         <v>0.111705866307602</v>
       </c>
-      <c r="H126" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J126" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K126" s="0" t="n">
+      <c r="H126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K126" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4685,28 +4685,28 @@
       <c r="C127" s="2" t="n">
         <v>22928</v>
       </c>
-      <c r="D127" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E127" s="0" t="n">
+      <c r="D127" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E127" s="1" t="n">
         <v>12258</v>
       </c>
-      <c r="F127" s="0" t="n">
+      <c r="F127" s="1" t="n">
         <v>0.0391093002835987</v>
       </c>
-      <c r="G127" s="0" t="n">
+      <c r="G127" s="1" t="n">
         <v>0.018151718613808</v>
       </c>
-      <c r="H127" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J127" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K127" s="0" t="n">
+      <c r="H127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K127" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4720,28 +4720,28 @@
       <c r="C128" s="2" t="n">
         <v>22929</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E128" s="0" t="n">
+      <c r="E128" s="1" t="n">
         <v>13386</v>
       </c>
-      <c r="F128" s="0" t="n">
+      <c r="F128" s="1" t="n">
         <v>0.0476050416618818</v>
       </c>
-      <c r="G128" s="0" t="n">
+      <c r="G128" s="1" t="n">
         <v>0.0560616490693064</v>
       </c>
-      <c r="H128" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J128" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K128" s="0" t="n">
+      <c r="H128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K128" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4755,28 +4755,28 @@
       <c r="C129" s="2" t="n">
         <v>22774</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129" s="1" t="n">
         <v>9954</v>
       </c>
-      <c r="F129" s="0" t="n">
+      <c r="F129" s="1" t="n">
         <v>0.0701368271111278</v>
       </c>
-      <c r="G129" s="0" t="n">
+      <c r="G129" s="1" t="n">
         <v>0.0812874586117687</v>
       </c>
-      <c r="H129" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I129" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J129" s="0" t="n">
+      <c r="H129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K129" s="0" t="n">
+      <c r="K129" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4790,28 +4790,28 @@
       <c r="C130" s="2" t="n">
         <v>32112</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E130" s="0" t="n">
+      <c r="E130" s="1" t="n">
         <v>6488</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130" s="1" t="n">
         <v>0.0415233475650894</v>
       </c>
-      <c r="G130" s="0" t="n">
+      <c r="G130" s="1" t="n">
         <v>0.0745292016799795</v>
       </c>
-      <c r="H130" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J130" s="0" t="n">
+      <c r="H130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K130" s="0" t="n">
+      <c r="K130" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4825,28 +4825,28 @@
       <c r="C131" s="2" t="n">
         <v>23987</v>
       </c>
-      <c r="D131" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E131" s="0" t="n">
+      <c r="D131" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E131" s="1" t="n">
         <v>19413</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131" s="1" t="n">
         <v>0.0577302715828409</v>
       </c>
-      <c r="G131" s="0" t="n">
+      <c r="G131" s="1" t="n">
         <v>0.0679433179757325</v>
       </c>
-      <c r="H131" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J131" s="0" t="n">
+      <c r="H131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K131" s="0" t="n">
+      <c r="K131" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4860,28 +4860,28 @@
       <c r="C132" s="2" t="n">
         <v>29639</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E132" s="0" t="n">
+      <c r="E132" s="1" t="n">
         <v>13618</v>
       </c>
-      <c r="F132" s="0" t="n">
+      <c r="F132" s="1" t="n">
         <v>0.00924462404509541</v>
       </c>
-      <c r="G132" s="0" t="n">
+      <c r="G132" s="1" t="n">
         <v>0.109709147232934</v>
       </c>
-      <c r="H132" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I132" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J132" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K132" s="0" t="n">
+      <c r="H132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K132" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4895,28 +4895,28 @@
       <c r="C133" s="2" t="n">
         <v>29640</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E133" s="0" t="n">
+      <c r="E133" s="1" t="n">
         <v>7948</v>
       </c>
-      <c r="F133" s="0" t="n">
+      <c r="F133" s="1" t="n">
         <v>0.11709519654687</v>
       </c>
-      <c r="G133" s="0" t="n">
+      <c r="G133" s="1" t="n">
         <v>0.0303337856457802</v>
       </c>
-      <c r="H133" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J133" s="0" t="n">
+      <c r="H133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K133" s="0" t="n">
+      <c r="K133" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4930,28 +4930,28 @@
       <c r="C134" s="2" t="n">
         <v>29641</v>
       </c>
-      <c r="D134" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E134" s="0" t="n">
+      <c r="D134" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E134" s="1" t="n">
         <v>6002</v>
       </c>
-      <c r="F134" s="0" t="n">
+      <c r="F134" s="1" t="n">
         <v>0.0445471248094691</v>
       </c>
-      <c r="G134" s="0" t="n">
+      <c r="G134" s="1" t="n">
         <v>0.01839469470724</v>
       </c>
-      <c r="H134" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I134" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J134" s="0" t="n">
+      <c r="H134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K134" s="0" t="n">
+      <c r="K134" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4965,28 +4965,28 @@
       <c r="C135" s="2" t="n">
         <v>22373</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E135" s="0" t="n">
+      <c r="E135" s="1" t="n">
         <v>11292</v>
       </c>
-      <c r="F135" s="0" t="n">
+      <c r="F135" s="1" t="n">
         <v>0.0348651845852146</v>
       </c>
-      <c r="G135" s="0" t="n">
+      <c r="G135" s="1" t="n">
         <v>0.0905695801047841</v>
       </c>
-      <c r="H135" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I135" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J135" s="0" t="n">
+      <c r="H135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K135" s="0" t="n">
+      <c r="K135" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5000,28 +5000,28 @@
       <c r="C136" s="2" t="n">
         <v>28503</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E136" s="0" t="n">
+      <c r="E136" s="1" t="n">
         <v>16988</v>
       </c>
-      <c r="F136" s="0" t="n">
+      <c r="F136" s="1" t="n">
         <v>0.0585705863340991</v>
       </c>
-      <c r="G136" s="0" t="n">
+      <c r="G136" s="1" t="n">
         <v>0.0331770869815955</v>
       </c>
-      <c r="H136" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I136" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J136" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K136" s="0" t="n">
+      <c r="H136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K136" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5035,28 +5035,28 @@
       <c r="C137" s="2" t="n">
         <v>30788</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E137" s="0" t="n">
+      <c r="E137" s="1" t="n">
         <v>11526</v>
       </c>
-      <c r="F137" s="0" t="n">
+      <c r="F137" s="1" t="n">
         <v>0.00151853421994019</v>
       </c>
-      <c r="G137" s="0" t="n">
+      <c r="G137" s="1" t="n">
         <v>0.120725517757819</v>
       </c>
-      <c r="H137" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I137" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J137" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K137" s="0" t="n">
+      <c r="H137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K137" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5070,28 +5070,28 @@
       <c r="C138" s="2" t="n">
         <v>19607</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E138" s="0" t="n">
+      <c r="E138" s="1" t="n">
         <v>13579</v>
       </c>
-      <c r="F138" s="0" t="n">
+      <c r="F138" s="1" t="n">
         <v>0.0688155518582789</v>
       </c>
-      <c r="G138" s="0" t="n">
+      <c r="G138" s="1" t="n">
         <v>0.0169413664116291</v>
       </c>
-      <c r="H138" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I138" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J138" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K138" s="0" t="n">
+      <c r="H138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K138" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5105,28 +5105,28 @@
       <c r="C139" s="2" t="n">
         <v>19608</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E139" s="0" t="n">
+      <c r="E139" s="1" t="n">
         <v>12692</v>
       </c>
-      <c r="F139" s="0" t="n">
+      <c r="F139" s="1" t="n">
         <v>0.084501319375704</v>
       </c>
-      <c r="G139" s="0" t="n">
+      <c r="G139" s="1" t="n">
         <v>0.018448962669936</v>
       </c>
-      <c r="H139" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I139" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J139" s="0" t="n">
+      <c r="H139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K139" s="0" t="n">
+      <c r="K139" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5140,28 +5140,28 @@
       <c r="C140" s="2" t="n">
         <v>21686</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E140" s="0" t="n">
+      <c r="E140" s="1" t="n">
         <v>17902</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140" s="1" t="n">
         <v>0.119970815474517</v>
       </c>
-      <c r="G140" s="0" t="n">
+      <c r="G140" s="1" t="n">
         <v>0.0641385424678447</v>
       </c>
-      <c r="H140" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I140" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J140" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K140" s="0" t="n">
+      <c r="H140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K140" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5175,28 +5175,28 @@
       <c r="C141" s="2" t="n">
         <v>30478</v>
       </c>
-      <c r="D141" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E141" s="0" t="n">
+      <c r="D141" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E141" s="1" t="n">
         <v>18605</v>
       </c>
-      <c r="F141" s="0" t="n">
+      <c r="F141" s="1" t="n">
         <v>0.0415306823415449</v>
       </c>
-      <c r="G141" s="0" t="n">
+      <c r="G141" s="1" t="n">
         <v>0.103145188259077</v>
       </c>
-      <c r="H141" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I141" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J141" s="0" t="n">
+      <c r="H141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K141" s="0" t="n">
+      <c r="K141" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5210,28 +5210,28 @@
       <c r="C142" s="2" t="n">
         <v>21012</v>
       </c>
-      <c r="D142" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E142" s="0" t="n">
+      <c r="D142" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E142" s="1" t="n">
         <v>15625</v>
       </c>
-      <c r="F142" s="0" t="n">
+      <c r="F142" s="1" t="n">
         <v>0.0828612422192236</v>
       </c>
-      <c r="G142" s="0" t="n">
+      <c r="G142" s="1" t="n">
         <v>0.0756160462187836</v>
       </c>
-      <c r="H142" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I142" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J142" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K142" s="0" t="n">
+      <c r="H142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K142" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5245,28 +5245,28 @@
       <c r="C143" s="2" t="n">
         <v>30646</v>
       </c>
-      <c r="D143" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E143" s="0" t="n">
+      <c r="D143" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E143" s="1" t="n">
         <v>8855</v>
       </c>
-      <c r="F143" s="0" t="n">
+      <c r="F143" s="1" t="n">
         <v>0.102659251439036</v>
       </c>
-      <c r="G143" s="0" t="n">
+      <c r="G143" s="1" t="n">
         <v>0.0767811465339037</v>
       </c>
-      <c r="H143" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I143" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J143" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K143" s="0" t="n">
+      <c r="H143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K143" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5280,28 +5280,28 @@
       <c r="C144" s="2" t="n">
         <v>22969</v>
       </c>
-      <c r="D144" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E144" s="0" t="n">
+      <c r="D144" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E144" s="1" t="n">
         <v>6147</v>
       </c>
-      <c r="F144" s="0" t="n">
+      <c r="F144" s="1" t="n">
         <v>0.12070169353683</v>
       </c>
-      <c r="G144" s="0" t="n">
+      <c r="G144" s="1" t="n">
         <v>0.0930764099612134</v>
       </c>
-      <c r="H144" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I144" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J144" s="0" t="n">
+      <c r="H144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K144" s="0" t="n">
+      <c r="K144" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5315,28 +5315,28 @@
       <c r="C145" s="2" t="n">
         <v>22970</v>
       </c>
-      <c r="D145" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E145" s="0" t="n">
+      <c r="D145" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" s="1" t="n">
         <v>13803</v>
       </c>
-      <c r="F145" s="0" t="n">
+      <c r="F145" s="1" t="n">
         <v>0.0577968711586436</v>
       </c>
-      <c r="G145" s="0" t="n">
+      <c r="G145" s="1" t="n">
         <v>0.0623409651016118</v>
       </c>
-      <c r="H145" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I145" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J145" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K145" s="0" t="n">
+      <c r="H145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5350,28 +5350,28 @@
       <c r="C146" s="2" t="n">
         <v>25460</v>
       </c>
-      <c r="D146" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E146" s="0" t="n">
+      <c r="D146" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E146" s="1" t="n">
         <v>10600</v>
       </c>
-      <c r="F146" s="0" t="n">
+      <c r="F146" s="1" t="n">
         <v>0.0986914231762057</v>
       </c>
-      <c r="G146" s="0" t="n">
+      <c r="G146" s="1" t="n">
         <v>0.000111637971713208</v>
       </c>
-      <c r="H146" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I146" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J146" s="0" t="n">
+      <c r="H146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K146" s="0" t="n">
+      <c r="K146" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5385,28 +5385,28 @@
       <c r="C147" s="2" t="n">
         <v>25792</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E147" s="0" t="n">
+      <c r="E147" s="1" t="n">
         <v>7757</v>
       </c>
-      <c r="F147" s="0" t="n">
+      <c r="F147" s="1" t="n">
         <v>0.0781894140382065</v>
       </c>
-      <c r="G147" s="0" t="n">
+      <c r="G147" s="1" t="n">
         <v>0.0418377716414398</v>
       </c>
-      <c r="H147" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I147" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J147" s="0" t="n">
+      <c r="H147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K147" s="0" t="n">
+      <c r="K147" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5420,28 +5420,28 @@
       <c r="C148" s="2" t="n">
         <v>25793</v>
       </c>
-      <c r="D148" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E148" s="0" t="n">
+      <c r="D148" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E148" s="1" t="n">
         <v>7383</v>
       </c>
-      <c r="F148" s="0" t="n">
+      <c r="F148" s="1" t="n">
         <v>0.0571289618237643</v>
       </c>
-      <c r="G148" s="0" t="n">
+      <c r="G148" s="1" t="n">
         <v>0.00173273637483362</v>
       </c>
-      <c r="H148" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I148" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J148" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K148" s="0" t="n">
+      <c r="H148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K148" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5455,28 +5455,28 @@
       <c r="C149" s="2" t="n">
         <v>30084</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E149" s="0" t="n">
+      <c r="E149" s="1" t="n">
         <v>5681</v>
       </c>
-      <c r="F149" s="0" t="n">
+      <c r="F149" s="1" t="n">
         <v>0.0104964143101824</v>
       </c>
-      <c r="G149" s="0" t="n">
+      <c r="G149" s="1" t="n">
         <v>0.0248436995170778</v>
       </c>
-      <c r="H149" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I149" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J149" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K149" s="0" t="n">
+      <c r="H149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K149" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5490,28 +5490,28 @@
       <c r="C150" s="2" t="n">
         <v>29764</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E150" s="0" t="n">
+      <c r="E150" s="1" t="n">
         <v>18896</v>
       </c>
-      <c r="F150" s="0" t="n">
+      <c r="F150" s="1" t="n">
         <v>0.0948661106376676</v>
       </c>
-      <c r="G150" s="0" t="n">
+      <c r="G150" s="1" t="n">
         <v>0.0116134259296814</v>
       </c>
-      <c r="H150" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I150" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J150" s="0" t="n">
+      <c r="H150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K150" s="0" t="n">
+      <c r="K150" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5525,28 +5525,28 @@
       <c r="C151" s="2" t="n">
         <v>30713</v>
       </c>
-      <c r="D151" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E151" s="0" t="n">
+      <c r="D151" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E151" s="1" t="n">
         <v>13162</v>
       </c>
-      <c r="F151" s="0" t="n">
+      <c r="F151" s="1" t="n">
         <v>0.0842381472320994</v>
       </c>
-      <c r="G151" s="0" t="n">
+      <c r="G151" s="1" t="n">
         <v>0.0303983059566235</v>
       </c>
-      <c r="H151" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I151" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J151" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K151" s="0" t="n">
+      <c r="H151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K151" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5560,28 +5560,28 @@
       <c r="C152" s="2" t="n">
         <v>30714</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E152" s="0" t="n">
+      <c r="E152" s="1" t="n">
         <v>12404</v>
       </c>
-      <c r="F152" s="0" t="n">
+      <c r="F152" s="1" t="n">
         <v>0.0690029719116865</v>
       </c>
-      <c r="G152" s="0" t="n">
+      <c r="G152" s="1" t="n">
         <v>0.0775102218758548</v>
       </c>
-      <c r="H152" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I152" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J152" s="0" t="n">
+      <c r="H152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K152" s="0" t="n">
+      <c r="K152" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5595,28 +5595,28 @@
       <c r="C153" s="2" t="n">
         <v>30715</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D153" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E153" s="0" t="n">
+      <c r="E153" s="1" t="n">
         <v>19556</v>
       </c>
-      <c r="F153" s="0" t="n">
+      <c r="F153" s="1" t="n">
         <v>0.0283144372078823</v>
       </c>
-      <c r="G153" s="0" t="n">
+      <c r="G153" s="1" t="n">
         <v>0.113159667685977</v>
       </c>
-      <c r="H153" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I153" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J153" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K153" s="0" t="n">
+      <c r="H153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K153" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5630,28 +5630,28 @@
       <c r="C154" s="2" t="n">
         <v>24428</v>
       </c>
-      <c r="D154" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E154" s="0" t="n">
+      <c r="D154" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E154" s="1" t="n">
         <v>15396</v>
       </c>
-      <c r="F154" s="0" t="n">
+      <c r="F154" s="1" t="n">
         <v>0.0862485174584435</v>
       </c>
-      <c r="G154" s="0" t="n">
+      <c r="G154" s="1" t="n">
         <v>0.117362862467417</v>
       </c>
-      <c r="H154" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I154" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J154" s="0" t="n">
+      <c r="H154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K154" s="0" t="n">
+      <c r="K154" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5665,28 +5665,28 @@
       <c r="C155" s="2" t="n">
         <v>24429</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E155" s="0" t="n">
+      <c r="E155" s="1" t="n">
         <v>16671</v>
       </c>
-      <c r="F155" s="0" t="n">
+      <c r="F155" s="1" t="n">
         <v>0.0114900275802938</v>
       </c>
-      <c r="G155" s="0" t="n">
+      <c r="G155" s="1" t="n">
         <v>0.0557812493789243</v>
       </c>
-      <c r="H155" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I155" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J155" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K155" s="0" t="n">
+      <c r="H155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K155" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5700,28 +5700,28 @@
       <c r="C156" s="2" t="n">
         <v>30970</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E156" s="0" t="n">
+      <c r="E156" s="1" t="n">
         <v>19745</v>
       </c>
-      <c r="F156" s="0" t="n">
+      <c r="F156" s="1" t="n">
         <v>0.106539352927939</v>
       </c>
-      <c r="G156" s="0" t="n">
+      <c r="G156" s="1" t="n">
         <v>0.123493292121566</v>
       </c>
-      <c r="H156" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I156" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J156" s="0" t="n">
+      <c r="H156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K156" s="0" t="n">
+      <c r="K156" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5735,28 +5735,28 @@
       <c r="C157" s="2" t="n">
         <v>30971</v>
       </c>
-      <c r="D157" s="0" t="n">
+      <c r="D157" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E157" s="0" t="n">
+      <c r="E157" s="1" t="n">
         <v>11790</v>
       </c>
-      <c r="F157" s="0" t="n">
+      <c r="F157" s="1" t="n">
         <v>0.00965746685687918</v>
       </c>
-      <c r="G157" s="0" t="n">
+      <c r="G157" s="1" t="n">
         <v>0.0184596088220133</v>
       </c>
-      <c r="H157" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I157" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J157" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K157" s="0" t="n">
+      <c r="H157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K157" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5770,28 +5770,28 @@
       <c r="C158" s="2" t="n">
         <v>30972</v>
       </c>
-      <c r="D158" s="0" t="n">
+      <c r="D158" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E158" s="0" t="n">
+      <c r="E158" s="1" t="n">
         <v>10567</v>
       </c>
-      <c r="F158" s="0" t="n">
+      <c r="F158" s="1" t="n">
         <v>0.0576458714349428</v>
       </c>
-      <c r="G158" s="0" t="n">
+      <c r="G158" s="1" t="n">
         <v>0.0124480430531548</v>
       </c>
-      <c r="H158" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I158" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J158" s="0" t="n">
+      <c r="H158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K158" s="0" t="n">
+      <c r="K158" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5805,28 +5805,28 @@
       <c r="C159" s="2" t="n">
         <v>24353</v>
       </c>
-      <c r="D159" s="0" t="n">
+      <c r="D159" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E159" s="0" t="n">
+      <c r="E159" s="1" t="n">
         <v>19422</v>
       </c>
-      <c r="F159" s="0" t="n">
+      <c r="F159" s="1" t="n">
         <v>0.0503009367239429</v>
       </c>
-      <c r="G159" s="0" t="n">
+      <c r="G159" s="1" t="n">
         <v>0.0719965731404955</v>
       </c>
-      <c r="H159" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I159" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J159" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K159" s="0" t="n">
+      <c r="H159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K159" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5840,28 +5840,28 @@
       <c r="C160" s="2" t="n">
         <v>28175</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E160" s="0" t="n">
+      <c r="E160" s="1" t="n">
         <v>10995</v>
       </c>
-      <c r="F160" s="0" t="n">
+      <c r="F160" s="1" t="n">
         <v>0.0788702751306118</v>
       </c>
-      <c r="G160" s="0" t="n">
+      <c r="G160" s="1" t="n">
         <v>0.0791755314130569</v>
       </c>
-      <c r="H160" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I160" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J160" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K160" s="0" t="n">
+      <c r="H160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K160" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5875,28 +5875,28 @@
       <c r="C161" s="2" t="n">
         <v>28176</v>
       </c>
-      <c r="D161" s="0" t="n">
+      <c r="D161" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E161" s="0" t="n">
+      <c r="E161" s="1" t="n">
         <v>11274</v>
       </c>
-      <c r="F161" s="0" t="n">
+      <c r="F161" s="1" t="n">
         <v>0.013414157947409</v>
       </c>
-      <c r="G161" s="0" t="n">
+      <c r="G161" s="1" t="n">
         <v>0.0615929914492881</v>
       </c>
-      <c r="H161" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I161" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J161" s="0" t="n">
+      <c r="H161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K161" s="0" t="n">
+      <c r="K161" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5910,28 +5910,28 @@
       <c r="C162" s="2" t="n">
         <v>22513</v>
       </c>
-      <c r="D162" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E162" s="0" t="n">
+      <c r="D162" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E162" s="1" t="n">
         <v>7400</v>
       </c>
-      <c r="F162" s="0" t="n">
+      <c r="F162" s="1" t="n">
         <v>0.0917560999369016</v>
       </c>
-      <c r="G162" s="0" t="n">
+      <c r="G162" s="1" t="n">
         <v>0.0172465267969528</v>
       </c>
-      <c r="H162" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I162" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J162" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K162" s="0" t="n">
+      <c r="H162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K162" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5945,28 +5945,28 @@
       <c r="C163" s="2" t="n">
         <v>22514</v>
       </c>
-      <c r="D163" s="0" t="n">
+      <c r="D163" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E163" s="0" t="n">
+      <c r="E163" s="1" t="n">
         <v>5165</v>
       </c>
-      <c r="F163" s="0" t="n">
+      <c r="F163" s="1" t="n">
         <v>0.0569869127211859</v>
       </c>
-      <c r="G163" s="0" t="n">
+      <c r="G163" s="1" t="n">
         <v>0.0252803532785038</v>
       </c>
-      <c r="H163" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I163" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J163" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K163" s="0" t="n">
+      <c r="H163" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K163" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5980,28 +5980,28 @@
       <c r="C164" s="2" t="n">
         <v>22515</v>
       </c>
-      <c r="D164" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E164" s="0" t="n">
+      <c r="D164" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E164" s="1" t="n">
         <v>12500</v>
       </c>
-      <c r="F164" s="0" t="n">
+      <c r="F164" s="1" t="n">
         <v>0.102413889588206</v>
       </c>
-      <c r="G164" s="0" t="n">
+      <c r="G164" s="1" t="n">
         <v>0.0601459029567195</v>
       </c>
-      <c r="H164" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I164" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J164" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K164" s="0" t="n">
+      <c r="H164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J164" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K164" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6015,28 +6015,28 @@
       <c r="C165" s="2" t="n">
         <v>22516</v>
       </c>
-      <c r="D165" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E165" s="0" t="n">
+      <c r="D165" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E165" s="1" t="n">
         <v>11973</v>
       </c>
-      <c r="F165" s="0" t="n">
+      <c r="F165" s="1" t="n">
         <v>0.0711132581782294</v>
       </c>
-      <c r="G165" s="0" t="n">
+      <c r="G165" s="1" t="n">
         <v>0.0593785046221456</v>
       </c>
-      <c r="H165" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I165" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J165" s="0" t="n">
+      <c r="H165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J165" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K165" s="0" t="n">
+      <c r="K165" s="1" t="n">
         <v>4</v>
       </c>
     </row>
